--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pth2-Pth2r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pth2-Pth2r.xlsx
@@ -85,6 +85,9 @@
     <t>Pth2r</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -555,31 +555,31 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.226516</v>
+        <v>0.165261</v>
       </c>
       <c r="N2">
-        <v>0.6795479999999999</v>
+        <v>0.330522</v>
       </c>
       <c r="O2">
-        <v>0.5176394414154667</v>
+        <v>0.2628738644684469</v>
       </c>
       <c r="P2">
-        <v>0.5361748461417074</v>
+        <v>0.2081763454351005</v>
       </c>
       <c r="Q2">
-        <v>0.03446780713999999</v>
+        <v>0.025146940065</v>
       </c>
       <c r="R2">
-        <v>0.31021026426</v>
+        <v>0.15088164039</v>
       </c>
       <c r="S2">
-        <v>0.5176394414154667</v>
+        <v>0.2628738644684469</v>
       </c>
       <c r="T2">
-        <v>0.5361748461417074</v>
+        <v>0.2081763454351005</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -617,31 +617,31 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.0453825</v>
+        <v>0.1873846666666667</v>
       </c>
       <c r="N3">
-        <v>0.090765</v>
+        <v>0.562154</v>
       </c>
       <c r="O3">
-        <v>0.1037091064209037</v>
+        <v>0.2980650696098803</v>
       </c>
       <c r="P3">
-        <v>0.07161511756351586</v>
+        <v>0.3540677028812712</v>
       </c>
       <c r="Q3">
-        <v>0.006905628112499999</v>
+        <v>0.02851338780333333</v>
       </c>
       <c r="R3">
-        <v>0.041433768675</v>
+        <v>0.25662049023</v>
       </c>
       <c r="S3">
-        <v>0.1037091064209037</v>
+        <v>0.2980650696098803</v>
       </c>
       <c r="T3">
-        <v>0.07161511756351586</v>
+        <v>0.3540677028812712</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,34 +676,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.1428066666666667</v>
+        <v>0.133048</v>
       </c>
       <c r="N4">
-        <v>0.42842</v>
+        <v>0.266096</v>
       </c>
       <c r="O4">
-        <v>0.3263449962198612</v>
+        <v>0.2116339724423665</v>
       </c>
       <c r="P4">
-        <v>0.3380306138551365</v>
+        <v>0.1675982016776448</v>
       </c>
       <c r="Q4">
-        <v>0.02173017643333333</v>
+        <v>0.02024524892</v>
       </c>
       <c r="R4">
-        <v>0.1955715879</v>
+        <v>0.12147149352</v>
       </c>
       <c r="S4">
-        <v>0.3263449962198612</v>
+        <v>0.2116339724423665</v>
       </c>
       <c r="T4">
-        <v>0.3380306138551365</v>
+        <v>0.1675982016776448</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.022889</v>
+        <v>0.1429766666666667</v>
       </c>
       <c r="N5">
-        <v>0.06866699999999999</v>
+        <v>0.42893</v>
       </c>
       <c r="O5">
-        <v>0.05230645594376829</v>
+        <v>0.2274270934793063</v>
       </c>
       <c r="P5">
-        <v>0.05417942243964021</v>
+        <v>0.2701577500059835</v>
       </c>
       <c r="Q5">
-        <v>0.003482904684999999</v>
+        <v>0.02175604448333333</v>
       </c>
       <c r="R5">
-        <v>0.03134614216499999</v>
+        <v>0.19580440035</v>
       </c>
       <c r="S5">
-        <v>0.05230645594376829</v>
+        <v>0.2274270934793063</v>
       </c>
       <c r="T5">
-        <v>0.05417942243964021</v>
+        <v>0.2701577500059835</v>
       </c>
     </row>
   </sheetData>
